--- a/results/FrequencyTables/26990633_LTR-G.xlsx
+++ b/results/FrequencyTables/26990633_LTR-G.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0126582278481013</v>
+        <v>0.0161662817551963</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0126582278481013</v>
+        <v>0.0161662817551963</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0253164556962025</v>
+        <v>0.0138568129330254</v>
       </c>
       <c r="L2">
-        <v>0.0126582278481013</v>
+        <v>0.0161662817551963</v>
       </c>
       <c r="M2">
-        <v>0.0126582278481013</v>
+        <v>0.0046189376443418</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0046189376443418</v>
       </c>
       <c r="O2">
-        <v>0.329113924050633</v>
+        <v>0.344110854503464</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -516,22 +516,22 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.987341772151899</v>
+        <v>0.979214780600462</v>
       </c>
       <c r="T2">
-        <v>0.0126582278481013</v>
+        <v>0.0161662817551963</v>
       </c>
       <c r="U2">
-        <v>0.20253164556962</v>
+        <v>0.187066974595843</v>
       </c>
       <c r="V2">
-        <v>0.974683544303797</v>
+        <v>0.979214780600462</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="X2">
-        <v>0.962025316455696</v>
+        <v>0.97459584295612</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,28 +539,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.936708860759494</v>
+        <v>0.889145496535797</v>
       </c>
       <c r="C3">
-        <v>0.987341772151899</v>
+        <v>0.993071593533487</v>
       </c>
       <c r="D3">
-        <v>0.0253164556962025</v>
+        <v>0.0207852193995381</v>
       </c>
       <c r="E3">
-        <v>0.0379746835443038</v>
+        <v>0.0115473441108545</v>
       </c>
       <c r="F3">
-        <v>0.0126582278481013</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.092378752886836</v>
       </c>
       <c r="I3">
-        <v>0.936708860759494</v>
+        <v>0.826789838337182</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -569,43 +569,43 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0046189376443418</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0126582278481013</v>
+        <v>0.0161662817551963</v>
       </c>
       <c r="O3">
-        <v>0.0126582278481013</v>
+        <v>0.0161662817551963</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0092378752886836</v>
       </c>
       <c r="Q3">
-        <v>0.873417721518987</v>
+        <v>0.89838337182448</v>
       </c>
       <c r="R3">
-        <v>0.0253164556962025</v>
+        <v>0.0046189376443418</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.835443037974684</v>
+        <v>0.905311778290993</v>
       </c>
       <c r="U3">
-        <v>0.772151898734177</v>
+        <v>0.79445727482679</v>
       </c>
       <c r="V3">
-        <v>0.0253164556962025</v>
+        <v>0.0184757505773672</v>
       </c>
       <c r="W3">
-        <v>0.949367088607595</v>
+        <v>0.909930715935335</v>
       </c>
       <c r="X3">
-        <v>0.0126582278481013</v>
+        <v>0.0161662817551963</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -616,16 +616,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0126582278481013</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="D4">
-        <v>0.0126582278481013</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.987341772151899</v>
+        <v>0.995381062355658</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -640,37 +640,37 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.974683544303797</v>
+        <v>0.981524249422633</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.974683544303797</v>
+        <v>0.993071593533487</v>
       </c>
       <c r="N4">
-        <v>0.987341772151899</v>
+        <v>0.979214780600462</v>
       </c>
       <c r="O4">
-        <v>0.645569620253165</v>
+        <v>0.635103926096998</v>
       </c>
       <c r="P4">
-        <v>0.0126582278481013</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="Q4">
-        <v>0.0126582278481013</v>
+        <v>0.0184757505773672</v>
       </c>
       <c r="R4">
-        <v>0.0253164556962025</v>
+        <v>0.0207852193995381</v>
       </c>
       <c r="S4">
-        <v>0.0126582278481013</v>
+        <v>0.0184757505773672</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="U4">
-        <v>0.0126582278481013</v>
+        <v>0.0161662817551963</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0126582278481013</v>
+        <v>0.0046189376443418</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0506329113924051</v>
+        <v>0.0946882217090069</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="D5">
-        <v>0.962025316455696</v>
+        <v>0.976905311778291</v>
       </c>
       <c r="E5">
-        <v>0.949367088607595</v>
+        <v>0.972286374133949</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -705,55 +705,55 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.907621247113164</v>
       </c>
       <c r="I5">
-        <v>0.0632911392405063</v>
+        <v>0.173210161662818</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0046189376443418</v>
       </c>
       <c r="L5">
-        <v>0.987341772151899</v>
+        <v>0.979214780600462</v>
       </c>
       <c r="M5">
-        <v>0.0126582278481013</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0126582278481013</v>
+        <v>0.0046189376443418</v>
       </c>
       <c r="P5">
-        <v>0.987341772151899</v>
+        <v>0.988452655889146</v>
       </c>
       <c r="Q5">
-        <v>0.113924050632911</v>
+        <v>0.0831408775981524</v>
       </c>
       <c r="R5">
-        <v>0.949367088607595</v>
+        <v>0.97459584295612</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="T5">
-        <v>0.151898734177215</v>
+        <v>0.0739030023094688</v>
       </c>
       <c r="U5">
-        <v>0.0126582278481013</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0023094688221709</v>
       </c>
       <c r="W5">
-        <v>0.0506329113924051</v>
+        <v>0.0877598152424942</v>
       </c>
       <c r="X5">
-        <v>0.0126582278481013</v>
+        <v>0.0046189376443418</v>
       </c>
     </row>
   </sheetData>
